--- a/files/PAB.xlsx
+++ b/files/PAB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEVELOPMENT\Prototype_BizPay360_banking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEVELOPMENT\repos\ansmish\BankingRedesign\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DC0266-EB4E-4746-8390-C69B24FB71E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CE3F8B-D67B-47C8-AFF8-986519C7EE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE9A56D9-A226-4DDF-9B11-394C3519A1C0}"/>
   </bookViews>
@@ -20,16 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -73,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +88,14 @@
       <color theme="1"/>
       <name val="Mulish SemiBold"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -138,10 +136,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -155,8 +154,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF38016-9C2C-47D6-A35C-E1219C626716}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,7 +516,48 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+    </row>
   </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid payment mode" error="Select a valid payment mode." promptTitle="Payment Mode" prompt="Select a payment mode from the drop-down." sqref="A2:A7" xr:uid="{6AEEDDEB-AE71-4CB5-A3EB-0F2BC8FD1207}">
+      <formula1>"FT, NEFT, IMPS, RTGS"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid beneficiary name" error="Beneficiary name contains special characters." promptTitle="Beneficiary Name" prompt="Enter beneficiary name. Only alpha numeric characters allowed." sqref="B2:B7" xr:uid="{3BC5DAA3-4E2C-401D-8479-9141FF2801CC}">
+      <formula1>ISNUMBER(SUMPRODUCT(SEARCH(MID(B2,ROW(INDIRECT("1:"&amp;LEN(B2))),1),"0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ")))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid account number" error="Enter a valid alphanumeric account number, without special characters, and not exceeding 32 characters." promptTitle="Beneficiary Account Number" prompt="Enter beneficiary account number." sqref="C2:C7" xr:uid="{C8221AE9-4084-4942-8B14-F488E48E5824}">
+      <formula1>AND(ISNUMBER(SUMPRODUCT(SEARCH(MID(C2,ROW(INDIRECT("1:"&amp;LEN(C2))),1),"0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ"))), LEN(C2)&lt;=32)</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid IFSC" error="IFSC entered is not 11 characters." promptTitle="Beneficiary IFSC" prompt="Enter beneficiary IFSC. Ensure 5th character of IFSC is zero i.e. 0 , and not O." sqref="D2:D7" xr:uid="{D4795F1D-197F-438D-9418-3FEC40772EF2}">
+      <formula1>11</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid amount" error="Numeric values are only allowed." promptTitle="Amount" prompt="Enter amount" sqref="E2:E7" xr:uid="{49663FE8-887F-402E-9647-7E7722DE6583}">
+      <formula1>ISNUMBER(E2)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>